--- a/resources/experiment 2/metrics/MAPE/incidence/Retinopatía proliferativa (INC).xlsx
+++ b/resources/experiment 2/metrics/MAPE/incidence/Retinopatía proliferativa (INC).xlsx
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>98312166652297.12</v>
+        <v>1030526647407.139</v>
       </c>
       <c r="C3" t="n">
-        <v>98312166652297.12</v>
+        <v>1028875162395.27</v>
       </c>
       <c r="D3" t="n">
-        <v>98312166652297.12</v>
+        <v>1635220702709212</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>132830801995085.2</v>
+        <v>1080346445265.233</v>
       </c>
       <c r="C4" t="n">
-        <v>132812619825853.3</v>
+        <v>970247444473.8754</v>
       </c>
       <c r="D4" t="n">
-        <v>132812619825853.3</v>
+        <v>212894459750680.4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4428291240267608</v>
+        <v>108832131653093.8</v>
       </c>
       <c r="C5" t="n">
-        <v>4428291240267608</v>
+        <v>57837435133899.56</v>
       </c>
       <c r="D5" t="n">
-        <v>4428291240267608</v>
+        <v>479098480933519.8</v>
       </c>
     </row>
   </sheetData>
